--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="200">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,151 +70,151 @@
     <t>low</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>paisley</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>paisley</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>sure</t>
@@ -979,10 +979,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>0.967741935483871</v>
@@ -1161,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>0.9444444444444444</v>
@@ -1211,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>0.9444444444444444</v>
@@ -1261,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7">
         <v>0.9444444444444444</v>
@@ -1311,7 +1311,7 @@
         <v>102</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>0.9333333333333333</v>
@@ -1361,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>0.9310344827586207</v>
@@ -1411,7 +1411,7 @@
         <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0.9285714285714286</v>
@@ -1461,7 +1461,7 @@
         <v>387</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <v>0.9145299145299145</v>
@@ -1511,7 +1511,7 @@
         <v>130</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12">
         <v>0.9111111111111111</v>
@@ -1540,13 +1540,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.09848484848484848</v>
+        <v>0.01350308641975309</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>221</v>
+        <v>550</v>
       </c>
       <c r="E13">
         <v>0.9399999999999999</v>
@@ -1558,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>119</v>
+        <v>2557</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13">
         <v>0.8846153846153846</v>
@@ -1590,28 +1590,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01350308641975309</v>
+        <v>0.01181767023072594</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>550</v>
+        <v>387</v>
       </c>
       <c r="E14">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F14">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2557</v>
+        <v>1756</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14">
         <v>0.8807339449541285</v>
@@ -1640,13 +1640,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01181767023072594</v>
+        <v>0.007436260623229462</v>
       </c>
       <c r="C15">
         <v>21</v>
       </c>
       <c r="D15">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="E15">
         <v>0.95</v>
@@ -1658,10 +1658,10 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1756</v>
+        <v>2803</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15">
         <v>0.8666666666666667</v>
@@ -1686,32 +1686,8 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.007436260623229462</v>
-      </c>
-      <c r="C16">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>398</v>
-      </c>
-      <c r="E16">
-        <v>0.95</v>
-      </c>
-      <c r="F16">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2803</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16">
         <v>0.8666666666666667</v>
@@ -1737,7 +1713,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17">
         <v>0.8661417322834646</v>
@@ -1763,7 +1739,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18">
         <v>0.8421052631578947</v>
@@ -1789,7 +1765,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19">
         <v>0.8375</v>
@@ -1815,7 +1791,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20">
         <v>0.8297872340425532</v>
@@ -1841,7 +1817,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>0.8235294117647058</v>
@@ -1867,7 +1843,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
         <v>0.8181818181818182</v>
@@ -1893,7 +1869,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>0.8141025641025641</v>
@@ -1919,7 +1895,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>0.8</v>
@@ -1945,7 +1921,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>0.7936507936507936</v>
@@ -1971,7 +1947,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>0.7777777777777778</v>
@@ -1997,7 +1973,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>0.7659574468085106</v>
@@ -2023,7 +1999,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
         <v>0.75</v>
@@ -2049,7 +2025,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>0.75</v>
@@ -2075,16 +2051,16 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.7412280701754386</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L30">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>0.9399999999999999</v>
@@ -2096,116 +2072,116 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.7391304347826086</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.7333333333333333</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L32">
         <v>33</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N32">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.7173913043478261</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L34">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="M34">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35">
         <v>0.696969696969697</v>
@@ -2231,7 +2207,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36">
         <v>0.6912928759894459</v>
@@ -2257,7 +2233,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37">
         <v>0.6818181818181818</v>
@@ -2283,7 +2259,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K38">
         <v>0.6666666666666666</v>
@@ -2309,7 +2285,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39">
         <v>0.6666666666666666</v>
@@ -2335,7 +2311,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K40">
         <v>0.6666666666666666</v>
@@ -2361,7 +2337,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K41">
         <v>0.66</v>
@@ -2387,7 +2363,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K42">
         <v>0.65625</v>
@@ -2413,7 +2389,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K43">
         <v>0.6398601398601399</v>
@@ -2439,7 +2415,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K44">
         <v>0.6363636363636364</v>
@@ -2465,28 +2441,28 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.636085626911315</v>
+        <v>0.625</v>
       </c>
       <c r="L45">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>119</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2494,25 +2470,25 @@
         <v>65</v>
       </c>
       <c r="K46">
-        <v>0.625</v>
+        <v>0.6162790697674418</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2520,25 +2496,25 @@
         <v>66</v>
       </c>
       <c r="K47">
-        <v>0.6162790697674418</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L47">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="M47">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>33</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -5273,7 +5249,7 @@
     </row>
     <row r="153" spans="10:17">
       <c r="J153" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K153">
         <v>0.1724787935909519</v>
@@ -5325,7 +5301,7 @@
     </row>
     <row r="155" spans="10:17">
       <c r="J155" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K155">
         <v>0.1676432291666667</v>
@@ -5715,7 +5691,7 @@
     </row>
     <row r="170" spans="10:17">
       <c r="J170" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K170">
         <v>0.1185534591194969</v>
